--- a/reverseprimer-v3_02.xlsx
+++ b/reverseprimer-v3_02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_02" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0097-AAGGACTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGACTCACGTCTCGTGGGCTCGG</t>
+    <t>R0097-TGCTGAACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCTGAACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0098-CTCAAGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGGAACGTCTCGTGGGCTCGG</t>
+    <t>R0098-GAAGTACCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0099-AGGTTCCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0099-TGTCAGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCAGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0100-TCCAAGGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCAAGGACAGTCTCGTGGGCTCGG</t>
+    <t>R0100-CTCCTCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCCTCAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0101-TGTGCTTCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGCTTCAGGTCTCGTGGGCTCGG</t>
+    <t>R0101-TCGAGGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAGGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0102-CGTGTACATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGTACATGGTCTCGTGGGCTCGG</t>
+    <t>R0102-TCTAGACCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTAGACCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0103-TGTCTACGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTACGTCGTCTCGTGGGCTCGG</t>
+    <t>R0103-GAACAGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACAGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0104-GTGAAGGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0104-GATCTCCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCTCCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0105-ACAACTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACTGATCGTCTCGTGGGCTCGG</t>
+    <t>R0105-AGCTAGAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTAGAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0106-ACTGGTACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGGTACCTGTCTCGTGGGCTCGG</t>
+    <t>R0106-GACATCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACATCACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0107-GAGAACAAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAACAAGCGTCTCGTGGGCTCGG</t>
+    <t>R0107-AGCATGTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATGTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0108-ATGGATGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGGATGACTGTCTCGTGGGCTCGG</t>
+    <t>R0108-CAAGAGGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGAGGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0109-ACTGGTTGTT</t>
+    <t>R0109-GAAGTCAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGTCAAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>R0110-TACCTCCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTCCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>R0111-TACAGTCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGTCTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>R0112-CAACAGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAGCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>R0113-GAACATGGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACATGGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>R0114-CCTTCTTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCTTGTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>R0115-AGTAGATGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGATGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>R0116-GTGGAGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGGAGTGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>R0117-GATGCTGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCTGTGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>R0118-ATCCTTGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTTGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>R0119-ATGACTGTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACTGTGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>R0120-ATCTGGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGGTGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>R0121-ACTAGAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTAGAAGACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>R0122-TACGACTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACGACTAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>R0123-GTGAGTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGTCAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>R0124-TGGAGACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R0125-TCTTGGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGGTTCGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>R0126-CGTACTTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTACTTGCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>R0127-ATCGTTGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTTGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>R0128-TCTTCAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTCAGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>R0129-ACAACACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACACCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>R0130-AACCTGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTGAGAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>R0131-TGTGCAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGCAACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>R0132-CTTGAACTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTGAACTAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>R0133-CGTGATCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGATCGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>R0134-AGAGAACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAACTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>R0135-GAGTCCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCCTCAAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>R0136-GAGTCACGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTCACGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R0137-ACGTCTGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGTCTGGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>R0138-TGAGGAGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGGAGTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>R0139-TCACACACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACACACGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>R0140-CATCTCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTCAACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>R0141-GTCATGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCATGCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>R0142-ACACCACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCACGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>R0143-AGTCAGTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGTCTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>R0144-ACATGTACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATGTACGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>R0145-GTACTCCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTCCAGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>R0146-TGACATGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACATGTGTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>R0147-AAGAGAGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAGAGTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>R0148-ATGCATGCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCATGCTTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>R0149-ATGAGTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGAGTCCATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>R0150-TGAGTCTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCTAGCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R0151-ACTGGTTGTT</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATACTGGTTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>R0110-AGGTCTAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTAGGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>R0111-TGAAGGTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGGTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>R0112-TGACCAGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACCAGTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>R0113-TCGTACTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTACTTGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>R0114-TACAGTCCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGTCCTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>R0115-TCGAGAGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAGAGTGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>R0116-CAACGTGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACGTGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
-    <t>R0117-TTCGACAAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGACAAGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B10</t>
-  </si>
-  <si>
-    <t>R0118-TACTGTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGTCGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B11</t>
-  </si>
-  <si>
-    <t>R0119-ACTGTGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGTGTTCGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>B12</t>
-  </si>
-  <si>
-    <t>R0120-AGCAGTTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGTTGAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>R0121-AGCAACTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAACTCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>R0122-GGATCCACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATCCACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>R0123-CGATGGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGATGGAACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>R0124-TGTCTACACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTACACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>R0125-GACAACTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACAACTTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>R0126-GACTCTTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTCTTGATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>R0127-CTAGTCGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGTCGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>R0128-CAACAGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACAGACGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>R0129-TGTCATCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCATCATCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>R0130-TACATGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATGCTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>R0131-ACAAGCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGCATCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>R0132-CATCTCACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTCACTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>R0133-ATCCTTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTTGTTCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>R0134-GCATGGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGGATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>R0135-CAGATGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGATGACATGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>R0136-AAGCTTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTTGGTAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R0137-TAGAGATCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAGATCCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>R0138-AACAGCTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGCTCACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>R0139-TGTCTCGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCGTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>R0140-TGATCATGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGATCATGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>R0141-AAGAGAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGAGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>R0142-CTCGAAGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGAAGCAAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>R0143-ATGATGGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGATGGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>R0144-GGAAGAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAAGAGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>R0145-CAGTACGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGTACGAACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>R0146-AAGTACGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTACGAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>R0147-CTCTGCATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCTGCATGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>R0148-ACAAGGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGGTCTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>R0149-GTCAAGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAAGTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>R0150-ATGATGGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGATGGTTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>R0151-TCAAGTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAAGTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0152-GTGCTCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCTCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0152-TTGAGGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0153-ATCCACCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCACCAAGGTCTCGTGGGCTCGG</t>
+    <t>R0153-GAACCTGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCTGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0154-AGACCAACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACCAACAAGTCTCGTGGGCTCGG</t>
+    <t>R0154-GTACAGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACAGCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0155-ACCTAGGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTAGGAACGTCTCGTGGGCTCGG</t>
+    <t>R0155-TCTCTACCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0156-GGATGTCGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGTCGATGTCTCGTGGGCTCGG</t>
+    <t>R0156-GTTCACCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCACCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0157-TACACGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACACGTACCGTCTCGTGGGCTCGG</t>
+    <t>R0157-ACTCTTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R0158-ACAGAGTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAGTGGTGTCTCGTGGGCTCGG</t>
+    <t>R0158-CACTAGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTAGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R0159-ACCTGATCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTGATCTCGTCTCGTGGGCTCGG</t>
+    <t>R0159-GTAGCTAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGCTAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R0160-TGAACGAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACGAACGGTCTCGTGGGCTCGG</t>
+    <t>R0160-CAACTCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTCTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0161-AGAACTCACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACTCACCGTCTCGTGGGCTCGG</t>
+    <t>R0161-CACTCACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTCACTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0162-AGCAAGTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAAGTTCCGTCTCGTGGGCTCGG</t>
+    <t>R0162-TTGGAGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0163-ATCGACTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGACTAGCGTCTCGTGGGCTCGG</t>
+    <t>R0163-ATGCAGATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAGATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0164-ATCAACTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAACTGCAGTCTCGTGGGCTCGG</t>
+    <t>R0164-CTCAGAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAGAACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0165-CCTACAGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACAGATCGTCTCGTGGGCTCGG</t>
+    <t>R0165-AACGAGTTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGAGTTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0166-CTACCACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTACCACTCAGTCTCGTGGGCTCGG</t>
+    <t>R0166-ACTGAACCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAACCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0167-ATCAGTCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAGTCTTCGTCTCGTGGGCTCGG</t>
+    <t>R0167-AGTGACGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGACGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0168-TGTGAAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGAAGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0168-TGTTCCTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTTCCTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0169-GAAGAGGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0169-AAGTGCACGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGCACGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0170-TGACAACCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACAACCTCGTCTCGTGGGCTCGG</t>
+    <t>R0170-AAGCACAACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCACAACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0171-CAACGTTCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACGTTCACGTCTCGTGGGCTCGG</t>
+    <t>R0171-AGATGTGAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATGTGAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0172-CGAAGCTGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGCTGAAGTCTCGTGGGCTCGG</t>
+    <t>R0172-AACGACAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGACAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0173-TAGATCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGATCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R0173-GCATGCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGCAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0174-AAGCATCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCATCACAGTCTCGTGGGCTCGG</t>
+    <t>R0174-ACCTTGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTTGTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0175-TGGTAGATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTAGATGCGTCTCGTGGGCTCGG</t>
+    <t>R0175-TCTACACACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTACACACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0176-TTGGAGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGGAGATGAGTCTCGTGGGCTCGG</t>
+    <t>R0176-GCAAGATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGATCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0177-AAGAAGACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAAGACGTGTCTCGTGGGCTCGG</t>
+    <t>R0177-GCAGAAGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAGAAGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0178-ACTCTGACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCTGACTGGTCTCGTGGGCTCGG</t>
+    <t>R0178-CCTACAACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTACAACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0179-AGCTACCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTACCAACGTCTCGTGGGCTCGG</t>
+    <t>R0179-TCGAAGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGAAGAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0180-TCCACAAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACAAGGAGTCTCGTGGGCTCGG</t>
+    <t>R0180-GTACACAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACACAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0181-AAGTGACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGACACGGTCTCGTGGGCTCGG</t>
+    <t>R0181-ATCTCAGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCAGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0182-AAGCACAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCACAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0182-AGTTGTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTGTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0183-GTTCCAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCAGAACGTCTCGTGGGCTCGG</t>
+    <t>R0183-GAACTGGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTGGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0184-CTAGCAGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCAGTACGTCTCGTGGGCTCGG</t>
+    <t>R0184-AAGGATGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGATGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0185-CACTAGACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTAGACAGGTCTCGTGGGCTCGG</t>
+    <t>R0185-TACATCACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACATCACTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0186-AGAGAACCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAACCACGTCTCGTGGGCTCGG</t>
+    <t>R0186-TCCTTCCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTTCCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0187-ACATCCATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCCATGAGTCTCGTGGGCTCGG</t>
+    <t>R0187-CAAGTACGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTACGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0188-TCAACCTTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACCTTGAGTCTCGTGGGCTCGG</t>
+    <t>R0188-GATGCAAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCAAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0189-AGCAACCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAACCTTGGTCTCGTGGGCTCGG</t>
+    <t>R0189-CATCTTGGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCTTGGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0190-TAGTGTGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGTGGTGGTCTCGTGGGCTCGG</t>
+    <t>R0190-AAGTGACTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTGACTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0191-CTAGGTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGGTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R0191-CCATGTTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCATGTTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0192-ATGAAGCTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGAAGCTAGGTCTCGTGGGCTCGG</t>
+    <t>R0192-ATGTTCTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTTCTCACGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
